--- a/Sufficient data/forecast_summary_B0CMK1W2YX.xlsx
+++ b/Sufficient data/forecast_summary_B0CMK1W2YX.xlsx
@@ -481,19 +481,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D2" t="n">
-        <v/>
+        <v>92</v>
       </c>
       <c r="E2" t="n">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="F2" t="n">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="G2" t="n">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D3" t="n">
-        <v/>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="F3" t="n">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="G3" t="n">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D4" t="n">
-        <v/>
+        <v>105</v>
       </c>
       <c r="E4" t="n">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="F4" t="n">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -589,16 +589,16 @@
         <v>380</v>
       </c>
       <c r="D5" t="n">
-        <v/>
+        <v>105</v>
       </c>
       <c r="E5" t="n">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="F5" t="n">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="G5" t="n">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -624,16 +624,16 @@
         <v>209</v>
       </c>
       <c r="D6" t="n">
-        <v/>
+        <v>106</v>
       </c>
       <c r="E6" t="n">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="F6" t="n">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="G6" t="n">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -659,16 +659,16 @@
         <v>101</v>
       </c>
       <c r="D7" t="n">
-        <v/>
+        <v>105</v>
       </c>
       <c r="E7" t="n">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F7" t="n">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="G7" t="n">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -694,16 +694,16 @@
         <v>140</v>
       </c>
       <c r="D8" t="n">
-        <v/>
+        <v>108</v>
       </c>
       <c r="E8" t="n">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="F8" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="G8" t="n">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -729,16 +729,16 @@
         <v>246</v>
       </c>
       <c r="D9" t="n">
-        <v/>
+        <v>109</v>
       </c>
       <c r="E9" t="n">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="F9" t="n">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="G9" t="n">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -764,16 +764,16 @@
         <v>293</v>
       </c>
       <c r="D10" t="n">
-        <v/>
+        <v>107</v>
       </c>
       <c r="E10" t="n">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F10" t="n">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G10" t="n">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -796,19 +796,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D11" t="n">
-        <v/>
+        <v>108</v>
       </c>
       <c r="E11" t="n">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="F11" t="n">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="G11" t="n">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -834,16 +834,16 @@
         <v>235</v>
       </c>
       <c r="D12" t="n">
-        <v/>
+        <v>110</v>
       </c>
       <c r="E12" t="n">
-        <v>194</v>
+        <v>134</v>
       </c>
       <c r="F12" t="n">
-        <v>239</v>
+        <v>163</v>
       </c>
       <c r="G12" t="n">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -869,16 +869,16 @@
         <v>266</v>
       </c>
       <c r="D13" t="n">
-        <v/>
+        <v>117</v>
       </c>
       <c r="E13" t="n">
-        <v>195</v>
+        <v>143</v>
       </c>
       <c r="F13" t="n">
-        <v>240</v>
+        <v>175</v>
       </c>
       <c r="G13" t="n">
-        <v>312</v>
+        <v>226</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         <v>312</v>
       </c>
       <c r="D14" t="n">
-        <v/>
+        <v>115</v>
       </c>
       <c r="E14" t="n">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="F14" t="n">
-        <v>242</v>
+        <v>172</v>
       </c>
       <c r="G14" t="n">
-        <v>314</v>
+        <v>221</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -939,16 +939,16 @@
         <v>311</v>
       </c>
       <c r="D15" t="n">
-        <v/>
+        <v>113</v>
       </c>
       <c r="E15" t="n">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="F15" t="n">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="G15" t="n">
-        <v>319</v>
+        <v>222</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -974,16 +974,16 @@
         <v>271</v>
       </c>
       <c r="D16" t="n">
-        <v/>
+        <v>111</v>
       </c>
       <c r="E16" t="n">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="F16" t="n">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="G16" t="n">
-        <v>316</v>
+        <v>218</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1009,16 +1009,16 @@
         <v>260</v>
       </c>
       <c r="D17" t="n">
-        <v/>
+        <v>110</v>
       </c>
       <c r="E17" t="n">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="F17" t="n">
-        <v>236</v>
+        <v>166</v>
       </c>
       <c r="G17" t="n">
-        <v>309</v>
+        <v>217</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2601</t>
+          <t>2600</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1905</t>
+          <t>1904</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>594</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMK1W2YX.xlsx
+++ b/Sufficient data/forecast_summary_B0CMK1W2YX.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,63 +425,114 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>yhat</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Amazon Mean Forecast</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Amazon P70 Forecast</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Amazon P80 Forecast</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Amazon P90 Forecast</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Diff_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Pct_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Diff_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Pct_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Diff_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Pct_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Diff_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Pct_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Product Title</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
           <t>Week</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Prophet Forecast</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Amazon Mean Forecast</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Amazon P70 Forecast</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Amazon P80 Forecast</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Amazon P90 Forecast</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>is_holiday_week</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>W01</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>B0CMK1W2YX</t>
-        </is>
+      <c r="A2" t="n">
+        <v>549</v>
+      </c>
+      <c r="B2" t="n">
+        <v>549.4863173187499</v>
       </c>
       <c r="C2" t="n">
-        <v>594</v>
+        <v>572.6547029891015</v>
       </c>
       <c r="D2" t="n">
         <v>92</v>
@@ -495,28 +546,61 @@
       <c r="G2" t="n">
         <v>156</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="n">
+        <v>457</v>
+      </c>
+      <c r="I2" t="n">
+        <v>496.7391304347826</v>
+      </c>
+      <c r="J2" t="n">
+        <v>439</v>
+      </c>
+      <c r="K2" t="n">
+        <v>399.0909090909091</v>
+      </c>
+      <c r="L2" t="n">
+        <v>421</v>
+      </c>
+      <c r="M2" t="n">
+        <v>328.90625</v>
+      </c>
+      <c r="N2" t="n">
+        <v>393</v>
+      </c>
+      <c r="O2" t="n">
+        <v>251.9230769230769</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I2" t="b">
+      <c r="R2" t="b">
         <v>0</v>
       </c>
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>W01</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>W02</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>B0CMK1W2YX</t>
-        </is>
+      <c r="A3" t="n">
+        <v>492</v>
+      </c>
+      <c r="B3" t="n">
+        <v>492.1578096901913</v>
       </c>
       <c r="C3" t="n">
-        <v>466</v>
+        <v>514.8086108337418</v>
       </c>
       <c r="D3" t="n">
         <v>100</v>
@@ -530,28 +614,61 @@
       <c r="G3" t="n">
         <v>181</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="n">
+        <v>392</v>
+      </c>
+      <c r="I3" t="n">
+        <v>392</v>
+      </c>
+      <c r="J3" t="n">
+        <v>371</v>
+      </c>
+      <c r="K3" t="n">
+        <v>306.6115702479339</v>
+      </c>
+      <c r="L3" t="n">
+        <v>348</v>
+      </c>
+      <c r="M3" t="n">
+        <v>241.6666666666667</v>
+      </c>
+      <c r="N3" t="n">
+        <v>311</v>
+      </c>
+      <c r="O3" t="n">
+        <v>171.8232044198895</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I3" t="b">
+      <c r="R3" t="b">
         <v>0</v>
       </c>
+      <c r="S3" t="n">
+        <v/>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>W02</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>W03</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>B0CMK1W2YX</t>
-        </is>
+      <c r="A4" t="n">
+        <v>477</v>
+      </c>
+      <c r="B4" t="n">
+        <v>477.4976885605291</v>
       </c>
       <c r="C4" t="n">
-        <v>464</v>
+        <v>500.7367083382856</v>
       </c>
       <c r="D4" t="n">
         <v>105</v>
@@ -565,28 +682,61 @@
       <c r="G4" t="n">
         <v>188</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="n">
+        <v>372</v>
+      </c>
+      <c r="I4" t="n">
+        <v>354.2857142857143</v>
+      </c>
+      <c r="J4" t="n">
+        <v>350</v>
+      </c>
+      <c r="K4" t="n">
+        <v>275.5905511811023</v>
+      </c>
+      <c r="L4" t="n">
+        <v>326</v>
+      </c>
+      <c r="M4" t="n">
+        <v>215.8940397350993</v>
+      </c>
+      <c r="N4" t="n">
+        <v>289</v>
+      </c>
+      <c r="O4" t="n">
+        <v>153.7234042553191</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I4" t="b">
+      <c r="R4" t="b">
         <v>0</v>
       </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>W03</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>W04</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>B0CMK1W2YX</t>
-        </is>
+      <c r="A5" t="n">
+        <v>364</v>
+      </c>
+      <c r="B5" t="n">
+        <v>364.0787050497802</v>
       </c>
       <c r="C5" t="n">
-        <v>380</v>
+        <v>385.9554098320198</v>
       </c>
       <c r="D5" t="n">
         <v>105</v>
@@ -600,28 +750,61 @@
       <c r="G5" t="n">
         <v>188</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="n">
+        <v>259</v>
+      </c>
+      <c r="I5" t="n">
+        <v>246.6666666666667</v>
+      </c>
+      <c r="J5" t="n">
+        <v>237</v>
+      </c>
+      <c r="K5" t="n">
+        <v>186.6141732283465</v>
+      </c>
+      <c r="L5" t="n">
+        <v>214</v>
+      </c>
+      <c r="M5" t="n">
+        <v>142.6666666666667</v>
+      </c>
+      <c r="N5" t="n">
+        <v>176</v>
+      </c>
+      <c r="O5" t="n">
+        <v>93.61702127659575</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I5" t="b">
+      <c r="R5" t="b">
         <v>0</v>
       </c>
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>W05</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>B0CMK1W2YX</t>
-        </is>
+      <c r="A6" t="n">
+        <v>193</v>
+      </c>
+      <c r="B6" t="n">
+        <v>192.6372078264679</v>
       </c>
       <c r="C6" t="n">
-        <v>209</v>
+        <v>214.2897644575303</v>
       </c>
       <c r="D6" t="n">
         <v>106</v>
@@ -635,28 +818,61 @@
       <c r="G6" t="n">
         <v>197</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="n">
+        <v>87</v>
+      </c>
+      <c r="I6" t="n">
+        <v>82.0754716981132</v>
+      </c>
+      <c r="J6" t="n">
+        <v>64</v>
+      </c>
+      <c r="K6" t="n">
+        <v>49.6124031007752</v>
+      </c>
+      <c r="L6" t="n">
+        <v>38</v>
+      </c>
+      <c r="M6" t="n">
+        <v>24.51612903225806</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-2.030456852791878</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I6" t="b">
+      <c r="R6" t="b">
         <v>0</v>
       </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>W06</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>B0CMK1W2YX</t>
-        </is>
+      <c r="A7" t="n">
+        <v>103</v>
+      </c>
+      <c r="B7" t="n">
+        <v>103.1496617406093</v>
       </c>
       <c r="C7" t="n">
-        <v>101</v>
+        <v>126.0597416247493</v>
       </c>
       <c r="D7" t="n">
         <v>105</v>
@@ -670,28 +886,61 @@
       <c r="G7" t="n">
         <v>189</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-1.904761904761905</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-23</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-18.25396825396825</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-48</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-31.78807947019868</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-86</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-45.5026455026455</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I7" t="b">
+      <c r="R7" t="b">
         <v>0</v>
       </c>
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>W07</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>B0CMK1W2YX</t>
-        </is>
+      <c r="A8" t="n">
+        <v>150</v>
+      </c>
+      <c r="B8" t="n">
+        <v>149.5291949035951</v>
       </c>
       <c r="C8" t="n">
-        <v>140</v>
+        <v>171.6526688498224</v>
       </c>
       <c r="D8" t="n">
         <v>108</v>
@@ -705,28 +954,61 @@
       <c r="G8" t="n">
         <v>205</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="n">
+        <v>42</v>
+      </c>
+      <c r="I8" t="n">
+        <v>38.88888888888889</v>
+      </c>
+      <c r="J8" t="n">
+        <v>18</v>
+      </c>
+      <c r="K8" t="n">
+        <v>13.63636363636363</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-10</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-6.25</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-55</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-26.82926829268293</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I8" t="b">
+      <c r="R8" t="b">
         <v>0</v>
       </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>W08</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>B0CMK1W2YX</t>
-        </is>
+      <c r="A9" t="n">
+        <v>245</v>
+      </c>
+      <c r="B9" t="n">
+        <v>245.3797271101543</v>
       </c>
       <c r="C9" t="n">
-        <v>246</v>
+        <v>266.6475323818117</v>
       </c>
       <c r="D9" t="n">
         <v>109</v>
@@ -740,28 +1022,61 @@
       <c r="G9" t="n">
         <v>209</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="n">
+        <v>136</v>
+      </c>
+      <c r="I9" t="n">
+        <v>124.7706422018349</v>
+      </c>
+      <c r="J9" t="n">
+        <v>112</v>
+      </c>
+      <c r="K9" t="n">
+        <v>84.21052631578947</v>
+      </c>
+      <c r="L9" t="n">
+        <v>83</v>
+      </c>
+      <c r="M9" t="n">
+        <v>51.23456790123457</v>
+      </c>
+      <c r="N9" t="n">
+        <v>36</v>
+      </c>
+      <c r="O9" t="n">
+        <v>17.22488038277512</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I9" t="b">
+      <c r="R9" t="b">
         <v>0</v>
       </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>W09</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>B0CMK1W2YX</t>
-        </is>
+      <c r="A10" t="n">
+        <v>283</v>
+      </c>
+      <c r="B10" t="n">
+        <v>282.9266772665562</v>
       </c>
       <c r="C10" t="n">
-        <v>293</v>
+        <v>305.7640848128863</v>
       </c>
       <c r="D10" t="n">
         <v>107</v>
@@ -775,28 +1090,61 @@
       <c r="G10" t="n">
         <v>198</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="n">
+        <v>176</v>
+      </c>
+      <c r="I10" t="n">
+        <v>164.4859813084112</v>
+      </c>
+      <c r="J10" t="n">
+        <v>153</v>
+      </c>
+      <c r="K10" t="n">
+        <v>117.6923076923077</v>
+      </c>
+      <c r="L10" t="n">
+        <v>127</v>
+      </c>
+      <c r="M10" t="n">
+        <v>81.41025641025641</v>
+      </c>
+      <c r="N10" t="n">
+        <v>85</v>
+      </c>
+      <c r="O10" t="n">
+        <v>42.92929292929293</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I10" t="b">
+      <c r="R10" t="b">
         <v>0</v>
       </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>B0CMK1W2YX</t>
-        </is>
+      <c r="A11" t="n">
+        <v>256</v>
+      </c>
+      <c r="B11" t="n">
+        <v>255.6730066314842</v>
       </c>
       <c r="C11" t="n">
-        <v>263</v>
+        <v>278.4754211408712</v>
       </c>
       <c r="D11" t="n">
         <v>108</v>
@@ -810,28 +1158,61 @@
       <c r="G11" t="n">
         <v>205</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="n">
+        <v>148</v>
+      </c>
+      <c r="I11" t="n">
+        <v>137.037037037037</v>
+      </c>
+      <c r="J11" t="n">
+        <v>125</v>
+      </c>
+      <c r="K11" t="n">
+        <v>95.41984732824427</v>
+      </c>
+      <c r="L11" t="n">
+        <v>96</v>
+      </c>
+      <c r="M11" t="n">
+        <v>60</v>
+      </c>
+      <c r="N11" t="n">
+        <v>51</v>
+      </c>
+      <c r="O11" t="n">
+        <v>24.87804878048781</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I11" t="b">
+      <c r="R11" t="b">
         <v>0</v>
       </c>
+      <c r="S11" t="n">
+        <v/>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>B0CMK1W2YX</t>
-        </is>
+      <c r="A12" t="n">
+        <v>238</v>
+      </c>
+      <c r="B12" t="n">
+        <v>237.5750101786611</v>
       </c>
       <c r="C12" t="n">
-        <v>235</v>
+        <v>258.4759888316157</v>
       </c>
       <c r="D12" t="n">
         <v>110</v>
@@ -845,28 +1226,61 @@
       <c r="G12" t="n">
         <v>210</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="n">
+        <v>128</v>
+      </c>
+      <c r="I12" t="n">
+        <v>116.3636363636364</v>
+      </c>
+      <c r="J12" t="n">
+        <v>104</v>
+      </c>
+      <c r="K12" t="n">
+        <v>77.61194029850746</v>
+      </c>
+      <c r="L12" t="n">
+        <v>75</v>
+      </c>
+      <c r="M12" t="n">
+        <v>46.01226993865031</v>
+      </c>
+      <c r="N12" t="n">
+        <v>28</v>
+      </c>
+      <c r="O12" t="n">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I12" t="b">
+      <c r="R12" t="b">
         <v>0</v>
       </c>
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>B0CMK1W2YX</t>
-        </is>
+      <c r="A13" t="n">
+        <v>269</v>
+      </c>
+      <c r="B13" t="n">
+        <v>269.2323944647606</v>
       </c>
       <c r="C13" t="n">
-        <v>266</v>
+        <v>291.9820247972493</v>
       </c>
       <c r="D13" t="n">
         <v>117</v>
@@ -880,28 +1294,61 @@
       <c r="G13" t="n">
         <v>226</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="n">
+        <v>152</v>
+      </c>
+      <c r="I13" t="n">
+        <v>129.9145299145299</v>
+      </c>
+      <c r="J13" t="n">
+        <v>126</v>
+      </c>
+      <c r="K13" t="n">
+        <v>88.11188811188812</v>
+      </c>
+      <c r="L13" t="n">
+        <v>94</v>
+      </c>
+      <c r="M13" t="n">
+        <v>53.71428571428572</v>
+      </c>
+      <c r="N13" t="n">
+        <v>43</v>
+      </c>
+      <c r="O13" t="n">
+        <v>19.02654867256637</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I13" t="b">
+      <c r="R13" t="b">
         <v>0</v>
       </c>
+      <c r="S13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>B0CMK1W2YX</t>
-        </is>
+      <c r="A14" t="n">
+        <v>309</v>
+      </c>
+      <c r="B14" t="n">
+        <v>309.3252263116473</v>
       </c>
       <c r="C14" t="n">
-        <v>312</v>
+        <v>331.5318414523824</v>
       </c>
       <c r="D14" t="n">
         <v>115</v>
@@ -915,28 +1362,61 @@
       <c r="G14" t="n">
         <v>221</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="n">
+        <v>194</v>
+      </c>
+      <c r="I14" t="n">
+        <v>168.6956521739131</v>
+      </c>
+      <c r="J14" t="n">
+        <v>168</v>
+      </c>
+      <c r="K14" t="n">
+        <v>119.1489361702128</v>
+      </c>
+      <c r="L14" t="n">
+        <v>137</v>
+      </c>
+      <c r="M14" t="n">
+        <v>79.65116279069767</v>
+      </c>
+      <c r="N14" t="n">
+        <v>88</v>
+      </c>
+      <c r="O14" t="n">
+        <v>39.81900452488688</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I14" t="b">
+      <c r="R14" t="b">
         <v>0</v>
       </c>
+      <c r="S14" t="n">
+        <v/>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>B0CMK1W2YX</t>
-        </is>
+      <c r="A15" t="n">
+        <v>304</v>
+      </c>
+      <c r="B15" t="n">
+        <v>304.1461779089198</v>
       </c>
       <c r="C15" t="n">
-        <v>311</v>
+        <v>327.1195843352615</v>
       </c>
       <c r="D15" t="n">
         <v>113</v>
@@ -950,28 +1430,61 @@
       <c r="G15" t="n">
         <v>222</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" t="n">
+        <v>191</v>
+      </c>
+      <c r="I15" t="n">
+        <v>169.0265486725664</v>
+      </c>
+      <c r="J15" t="n">
+        <v>166</v>
+      </c>
+      <c r="K15" t="n">
+        <v>120.2898550724638</v>
+      </c>
+      <c r="L15" t="n">
+        <v>134</v>
+      </c>
+      <c r="M15" t="n">
+        <v>78.82352941176471</v>
+      </c>
+      <c r="N15" t="n">
+        <v>82</v>
+      </c>
+      <c r="O15" t="n">
+        <v>36.93693693693694</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I15" t="b">
+      <c r="R15" t="b">
         <v>0</v>
       </c>
+      <c r="S15" t="n">
+        <v/>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>B0CMK1W2YX</t>
-        </is>
+      <c r="A16" t="n">
+        <v>268</v>
+      </c>
+      <c r="B16" t="n">
+        <v>267.8333790208825</v>
       </c>
       <c r="C16" t="n">
-        <v>271</v>
+        <v>290.0802839537843</v>
       </c>
       <c r="D16" t="n">
         <v>111</v>
@@ -985,28 +1498,61 @@
       <c r="G16" t="n">
         <v>218</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="n">
+        <v>157</v>
+      </c>
+      <c r="I16" t="n">
+        <v>141.4414414414414</v>
+      </c>
+      <c r="J16" t="n">
+        <v>132</v>
+      </c>
+      <c r="K16" t="n">
+        <v>97.05882352941177</v>
+      </c>
+      <c r="L16" t="n">
+        <v>101</v>
+      </c>
+      <c r="M16" t="n">
+        <v>60.47904191616767</v>
+      </c>
+      <c r="N16" t="n">
+        <v>50</v>
+      </c>
+      <c r="O16" t="n">
+        <v>22.93577981651376</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I16" t="b">
+      <c r="R16" t="b">
         <v>0</v>
       </c>
+      <c r="S16" t="n">
+        <v/>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>W16</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>B0CMK1W2YX</t>
-        </is>
+      <c r="A17" t="n">
+        <v>263</v>
+      </c>
+      <c r="B17" t="n">
+        <v>262.8041500336484</v>
       </c>
       <c r="C17" t="n">
-        <v>260</v>
+        <v>285.2518939877944</v>
       </c>
       <c r="D17" t="n">
         <v>110</v>
@@ -1020,13 +1566,50 @@
       <c r="G17" t="n">
         <v>217</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" t="n">
+        <v>153</v>
+      </c>
+      <c r="I17" t="n">
+        <v>139.0909090909091</v>
+      </c>
+      <c r="J17" t="n">
+        <v>129</v>
+      </c>
+      <c r="K17" t="n">
+        <v>96.26865671641791</v>
+      </c>
+      <c r="L17" t="n">
+        <v>97</v>
+      </c>
+      <c r="M17" t="n">
+        <v>58.43373493975904</v>
+      </c>
+      <c r="N17" t="n">
+        <v>46</v>
+      </c>
+      <c r="O17" t="n">
+        <v>21.19815668202765</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I17" t="b">
+      <c r="R17" t="b">
         <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v/>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1735,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4811</t>
+          <t>4763</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1747,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2600</t>
+          <t>2573</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1759,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1904</t>
+          <t>1882</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1771,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>549</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1795,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>103</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMK1W2YX.xlsx
+++ b/Sufficient data/forecast_summary_B0CMK1W2YX.xlsx
@@ -481,19 +481,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="D2" t="n">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="E2" t="n">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="F2" t="n">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="G2" t="n">
-        <v>156</v>
+        <v>244</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>235</v>
+        <v>170</v>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E3" t="n">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="F3" t="n">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="G3" t="n">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>244</v>
+        <v>191</v>
       </c>
       <c r="D4" t="n">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="E4" t="n">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="G4" t="n">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>244</v>
+        <v>144</v>
       </c>
       <c r="D5" t="n">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="E5" t="n">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="F5" t="n">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="G5" t="n">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="D6" t="n">
+        <v>71</v>
+      </c>
+      <c r="E6" t="n">
+        <v>87</v>
+      </c>
+      <c r="F6" t="n">
         <v>106</v>
       </c>
-      <c r="E6" t="n">
-        <v>129</v>
-      </c>
-      <c r="F6" t="n">
-        <v>155</v>
-      </c>
       <c r="G6" t="n">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="D7" t="n">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E7" t="n">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="F7" t="n">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="G7" t="n">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="D8" t="n">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="E8" t="n">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="F8" t="n">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="G8" t="n">
-        <v>205</v>
+        <v>135</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -726,19 +726,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>245</v>
+        <v>163</v>
       </c>
       <c r="D9" t="n">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="E9" t="n">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="F9" t="n">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="G9" t="n">
-        <v>209</v>
+        <v>136</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -761,19 +761,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>257</v>
+        <v>174</v>
       </c>
       <c r="D10" t="n">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E10" t="n">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="F10" t="n">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="G10" t="n">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -796,19 +796,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>256</v>
+        <v>193</v>
       </c>
       <c r="D11" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E11" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F11" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G11" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -831,19 +831,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="D12" t="n">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="E12" t="n">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="F12" t="n">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="G12" t="n">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>269</v>
+        <v>210</v>
       </c>
       <c r="D13" t="n">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E13" t="n">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="F13" t="n">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G13" t="n">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -901,19 +901,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>287</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E14" t="n">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="F14" t="n">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="G14" t="n">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -936,19 +936,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="D15" t="n">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="E15" t="n">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="F15" t="n">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="G15" t="n">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="D16" t="n">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="E16" t="n">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="F16" t="n">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="G16" t="n">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="D17" t="n">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="E17" t="n">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="F17" t="n">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="G17" t="n">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-11-19 to 2024-12-01</t>
+          <t>2023-11-19 to 2024-11-24</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>180</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>75</t>
         </is>
       </c>
     </row>
@@ -1116,67 +1116,67 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>67</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Std Dev Sales</t>
+          <t>Std Dev</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>44</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Total Historical Sales</t>
+          <t>Total Sales</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4173 units</t>
+          <t>3969</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Total Forecast (16 Weeks)</t>
+          <t>4 Weeks Forecast</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3744</t>
+          <t>673</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Total Forecast (8 Weeks)</t>
+          <t>8 Weeks Forecast</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1617</t>
+          <t>1258</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Total Forecast (4 Weeks)</t>
+          <t>16 Weeks Forecast</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>2965</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>249</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-02</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>127</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-05</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMK1W2YX.xlsx
+++ b/Sufficient data/forecast_summary_B0CMK1W2YX.xlsx
@@ -435,7 +435,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Forecast</t>
+          <t>Prophet Forecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>168</v>
+        <v>167.5</v>
       </c>
       <c r="D2" t="n">
         <v>129</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="D3" t="n">
         <v>76</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>191</v>
+        <v>212.5</v>
       </c>
       <c r="D4" t="n">
         <v>81</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>144</v>
+        <v>203.5</v>
       </c>
       <c r="D5" t="n">
         <v>65</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D6" t="n">
         <v>71</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="D7" t="n">
         <v>77</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>132</v>
+        <v>149.5</v>
       </c>
       <c r="D8" t="n">
         <v>73</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>163</v>
+        <v>168.5</v>
       </c>
       <c r="D9" t="n">
         <v>72</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D10" t="n">
         <v>76</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="D11" t="n">
         <v>111</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D12" t="n">
         <v>133</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>210</v>
+        <v>188.5</v>
       </c>
       <c r="D13" t="n">
         <v>132</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>240</v>
+        <v>203.5</v>
       </c>
       <c r="D14" t="n">
         <v>134</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="D15" t="n">
         <v>135</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>232</v>
+        <v>199.5</v>
       </c>
       <c r="D16" t="n">
         <v>135</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>220</v>
+        <v>193.5</v>
       </c>
       <c r="D17" t="n">
         <v>136</v>
@@ -1123,7 +1123,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Std Dev</t>
+          <t>Std Dev Sales</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1135,48 +1135,48 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Total Sales</t>
+          <t>Total Historical Sales</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3969</t>
+          <t>3969 units</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4 Weeks Forecast</t>
+          <t>Total Forecast (16 Weeks)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>2944</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8 Weeks Forecast</t>
+          <t>Total Forecast (8 Weeks)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1258</t>
+          <t>1412</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>16 Weeks Forecast</t>
+          <t>Total Forecast (4 Weeks)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2965</t>
+          <t>776</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>212</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2024-12-15</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>147</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMK1W2YX.xlsx
+++ b/Sufficient data/forecast_summary_B0CMK1W2YX.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>167.5</v>
+        <v>118.6</v>
       </c>
       <c r="D2" t="n">
         <v>129</v>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>192</v>
+        <v>121.9</v>
       </c>
       <c r="D3" t="n">
         <v>76</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>212.5</v>
+        <v>145.4</v>
       </c>
       <c r="D4" t="n">
         <v>81</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>203.5</v>
+        <v>140.2</v>
       </c>
       <c r="D5" t="n">
         <v>65</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>172</v>
+        <v>106.9</v>
       </c>
       <c r="D6" t="n">
         <v>71</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>147</v>
+        <v>84.5</v>
       </c>
       <c r="D7" t="n">
         <v>77</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>149.5</v>
+        <v>74</v>
       </c>
       <c r="D8" t="n">
         <v>73</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>168.5</v>
+        <v>107</v>
       </c>
       <c r="D9" t="n">
         <v>72</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>181</v>
+        <v>113.5</v>
       </c>
       <c r="D10" t="n">
         <v>76</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>180</v>
+        <v>116.7</v>
       </c>
       <c r="D11" t="n">
         <v>111</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>178</v>
+        <v>112.9</v>
       </c>
       <c r="D12" t="n">
         <v>133</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>188.5</v>
+        <v>126</v>
       </c>
       <c r="D13" t="n">
         <v>132</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>203.5</v>
+        <v>128</v>
       </c>
       <c r="D14" t="n">
         <v>134</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>208</v>
+        <v>146.5</v>
       </c>
       <c r="D15" t="n">
         <v>135</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>199.5</v>
+        <v>132</v>
       </c>
       <c r="D16" t="n">
         <v>135</v>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>193.5</v>
+        <v>130.2</v>
       </c>
       <c r="D17" t="n">
         <v>136</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2944</t>
+          <t>1904</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1412</t>
+          <t>898</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>526</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>146</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-15</t>
+          <t>2025-03-02</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMK1W2YX.xlsx
+++ b/Sufficient data/forecast_summary_B0CMK1W2YX.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>118.6</v>
+        <v>143.65</v>
       </c>
       <c r="D2" t="n">
         <v>129</v>
@@ -500,8 +500,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="I2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>121.9</v>
+        <v>77.55</v>
       </c>
       <c r="D3" t="n">
         <v>76</v>
@@ -535,8 +535,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="I3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>145.4</v>
+        <v>85.14999999999999</v>
       </c>
       <c r="D4" t="n">
         <v>81</v>
@@ -570,8 +570,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="I4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>140.2</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="D5" t="n">
         <v>65</v>
@@ -605,8 +605,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="I5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>106.9</v>
+        <v>78.55</v>
       </c>
       <c r="D6" t="n">
         <v>71</v>
@@ -640,8 +640,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="I6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>84.5</v>
+        <v>86.2</v>
       </c>
       <c r="D7" t="n">
         <v>77</v>
@@ -675,8 +675,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="I7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>74</v>
+        <v>69.69999999999999</v>
       </c>
       <c r="D8" t="n">
         <v>73</v>
@@ -710,8 +710,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="I8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>107</v>
+        <v>82.89999999999999</v>
       </c>
       <c r="D9" t="n">
         <v>72</v>
@@ -745,8 +745,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="I9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>113.5</v>
+        <v>80.34999999999999</v>
       </c>
       <c r="D10" t="n">
         <v>76</v>
@@ -780,8 +780,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="I10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>116.7</v>
+        <v>113.95</v>
       </c>
       <c r="D11" t="n">
         <v>111</v>
@@ -815,8 +815,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="I11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>112.9</v>
+        <v>130.75</v>
       </c>
       <c r="D12" t="n">
         <v>133</v>
@@ -850,8 +850,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="I12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>126</v>
+        <v>132.65</v>
       </c>
       <c r="D13" t="n">
         <v>132</v>
@@ -885,8 +885,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="I13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>128</v>
+        <v>121.15</v>
       </c>
       <c r="D14" t="n">
         <v>134</v>
@@ -920,8 +920,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="I14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>146.5</v>
+        <v>136.05</v>
       </c>
       <c r="D15" t="n">
         <v>135</v>
@@ -955,8 +955,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="I15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>132</v>
+        <v>130.4</v>
       </c>
       <c r="D16" t="n">
         <v>135</v>
@@ -990,8 +990,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="I16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>130.2</v>
+        <v>135.3</v>
       </c>
       <c r="D17" t="n">
         <v>136</v>
@@ -1025,8 +1025,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="I17" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1904</t>
+          <t>1679</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>699</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>381</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>144</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2024-12-01</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>70</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMK1W2YX.xlsx
+++ b/Sufficient data/forecast_summary_B0CMK1W2YX.xlsx
@@ -500,8 +500,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -535,8 +535,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -570,8 +570,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -605,8 +605,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
+      <c r="I5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -640,8 +640,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -675,8 +675,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -710,8 +710,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -745,8 +745,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -780,8 +780,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -815,8 +815,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -850,8 +850,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -885,8 +885,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v/>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,8 +920,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I14" t="n">
-        <v/>
+      <c r="I14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -955,8 +955,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v/>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -990,8 +990,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v/>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1025,8 +1025,8 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v/>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Sufficient data/forecast_summary_B0CMK1W2YX.xlsx
+++ b/Sufficient data/forecast_summary_B0CMK1W2YX.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>143.65</v>
+        <v>157.3</v>
       </c>
       <c r="D2" t="n">
         <v>129</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>130.75</v>
+        <v>152.8</v>
       </c>
       <c r="D12" t="n">
         <v>133</v>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>132.65</v>
+        <v>165.6</v>
       </c>
       <c r="D13" t="n">
         <v>132</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1679</t>
+          <t>1748</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>712</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>395</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>166</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2025-02-16</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMK1W2YX.xlsx
+++ b/Sufficient data/forecast_summary_B0CMK1W2YX.xlsx
@@ -435,7 +435,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Prophet Forecast</t>
+          <t>MyForecast</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>157.3</v>
+        <v>157</v>
       </c>
       <c r="D2" t="n">
         <v>129</v>
@@ -500,7 +500,7 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I2" t="b">
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>77.55</v>
+        <v>78</v>
       </c>
       <c r="D3" t="n">
         <v>76</v>
@@ -535,7 +535,7 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I3" t="b">
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>85.14999999999999</v>
+        <v>85</v>
       </c>
       <c r="D4" t="n">
         <v>81</v>
@@ -570,7 +570,7 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I4" t="b">
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>75.09999999999999</v>
+        <v>75</v>
       </c>
       <c r="D5" t="n">
         <v>65</v>
@@ -605,7 +605,7 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I5" t="b">
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>78.55</v>
+        <v>79</v>
       </c>
       <c r="D6" t="n">
         <v>71</v>
@@ -640,7 +640,7 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I6" t="b">
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>86.2</v>
+        <v>86</v>
       </c>
       <c r="D7" t="n">
         <v>77</v>
@@ -675,7 +675,7 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I7" t="b">
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>69.69999999999999</v>
+        <v>70</v>
       </c>
       <c r="D8" t="n">
         <v>73</v>
@@ -710,7 +710,7 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I8" t="b">
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>82.89999999999999</v>
+        <v>83</v>
       </c>
       <c r="D9" t="n">
         <v>72</v>
@@ -745,7 +745,7 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I9" t="b">
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>80.34999999999999</v>
+        <v>80</v>
       </c>
       <c r="D10" t="n">
         <v>76</v>
@@ -780,7 +780,7 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I10" t="b">
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>113.95</v>
+        <v>114</v>
       </c>
       <c r="D11" t="n">
         <v>111</v>
@@ -815,7 +815,7 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I11" t="b">
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>152.8</v>
+        <v>153</v>
       </c>
       <c r="D12" t="n">
         <v>133</v>
@@ -850,7 +850,7 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I12" t="b">
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>165.6</v>
+        <v>166</v>
       </c>
       <c r="D13" t="n">
         <v>132</v>
@@ -885,7 +885,7 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I13" t="b">
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>121.15</v>
+        <v>121</v>
       </c>
       <c r="D14" t="n">
         <v>134</v>
@@ -920,7 +920,7 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I14" t="b">
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>136.05</v>
+        <v>136</v>
       </c>
       <c r="D15" t="n">
         <v>135</v>
@@ -955,7 +955,7 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I15" t="b">
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>130.4</v>
+        <v>130</v>
       </c>
       <c r="D16" t="n">
         <v>135</v>
@@ -990,7 +990,7 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I16" t="b">
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>135.3</v>
+        <v>135</v>
       </c>
       <c r="D17" t="n">
         <v>136</v>
@@ -1025,7 +1025,7 @@
           <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
-      <c r="I17" t="b">
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMK1W2YX.xlsx
+++ b/Sufficient data/forecast_summary_B0CMK1W2YX.xlsx
@@ -481,19 +481,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="D2" t="n">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="E2" t="n">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="F2" t="n">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="G2" t="n">
-        <v>244</v>
+        <v>127</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D3" t="n">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="E3" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F3" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G3" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="D4" t="n">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F4" t="n">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G4" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -586,19 +586,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="D5" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="E5" t="n">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="F5" t="n">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="G5" t="n">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D6" t="n">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="E6" t="n">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="F6" t="n">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="G6" t="n">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="D7" t="n">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E7" t="n">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="F7" t="n">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="G7" t="n">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="D8" t="n">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="E8" t="n">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="F8" t="n">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="G8" t="n">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -726,19 +726,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="D9" t="n">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E9" t="n">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="F9" t="n">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="G9" t="n">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -761,19 +761,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="D10" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="E10" t="n">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="F10" t="n">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="G10" t="n">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -799,16 +799,16 @@
         <v>114</v>
       </c>
       <c r="D11" t="n">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E11" t="n">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F11" t="n">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="G11" t="n">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -831,19 +831,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="D12" t="n">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="E12" t="n">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="F12" t="n">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="G12" t="n">
-        <v>246</v>
+        <v>195</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="D13" t="n">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="E13" t="n">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="F13" t="n">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="G13" t="n">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -901,19 +901,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D14" t="n">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="E14" t="n">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="F14" t="n">
+        <v>152</v>
+      </c>
+      <c r="G14" t="n">
         <v>195</v>
-      </c>
-      <c r="G14" t="n">
-        <v>245</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -936,19 +936,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="D15" t="n">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="E15" t="n">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="F15" t="n">
-        <v>198</v>
+        <v>146</v>
       </c>
       <c r="G15" t="n">
-        <v>252</v>
+        <v>190</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="D16" t="n">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="E16" t="n">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="F16" t="n">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="G16" t="n">
-        <v>263</v>
+        <v>193</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1006,19 +1006,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="D17" t="n">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="E17" t="n">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="F17" t="n">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="G17" t="n">
-        <v>259</v>
+        <v>192</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-11-19 to 2024-11-24</t>
+          <t>2023-11-19 to 2024-12-29</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>184</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>79</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3969 units</t>
+          <t>4566 units</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1748</t>
+          <t>1727</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>852</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>411</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>122</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-03-30</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-04-06</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMK1W2YX.xlsx
+++ b/Sufficient data/forecast_summary_B0CMK1W2YX.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,40 +430,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Week_Start_Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>MyForecast</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
@@ -472,315 +477,360 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W01</t>
+          <t>W1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B0CMK1W2YX</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>98</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>81</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>95</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>108</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>127</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B650 A ELITE AX V2            </t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+        </is>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W02</t>
+          <t>W2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B0CMK1W2YX</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>101</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>87</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>104</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>120</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>146</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B650 A ELITE AX V2            </t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+        </is>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W03</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B0CMK1W2YX</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>106</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>95</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>113</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>132</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>161</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B650 A ELITE AX V2            </t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+        </is>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W04</t>
+          <t>W4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B0CMK1W2YX</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>106</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>95</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>114</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>133</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>163</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B650 A ELITE AX V2            </t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+        </is>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W05</t>
+          <t>W5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B0CMK1W2YX</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>106</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>96</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>116</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>137</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>171</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B650 A ELITE AX V2            </t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+        </is>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W06</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B0CMK1W2YX</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>107</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>94</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>113</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>132</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>163</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B650 A ELITE AX V2            </t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+        </is>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W07</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B0CMK1W2YX</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>112</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>99</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>120</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>143</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>179</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B650 A ELITE AX V2            </t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+        </is>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W08</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B0CMK1W2YX</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>115</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>102</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>125</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>150</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>191</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B650 A ELITE AX V2            </t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+        </is>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W09</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B0CMK1W2YX</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>114</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>100</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>122</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>146</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>183</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B650 A ELITE AX V2            </t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+        </is>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -792,30 +842,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B0CMK1W2YX</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>114</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>103</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>125</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>151</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>193</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B650 A ELITE AX V2            </t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+        </is>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -827,30 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B0CMK1W2YX</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>114</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>103</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>125</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>152</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>195</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B650 A ELITE AX V2            </t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+        </is>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -862,30 +922,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B0CMK1W2YX</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>118</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>103</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>126</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>154</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>199</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B650 A ELITE AX V2            </t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+        </is>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -897,30 +962,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B0CMK1W2YX</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>122</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>102</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>125</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>152</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>195</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B650 A ELITE AX V2            </t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+        </is>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -932,30 +1002,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B0CMK1W2YX</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>97</v>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
       </c>
       <c r="D15" t="n">
         <v>97</v>
       </c>
       <c r="E15" t="n">
+        <v>97</v>
+      </c>
+      <c r="F15" t="n">
         <v>119</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>146</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>190</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B650 A ELITE AX V2            </t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+        </is>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -967,30 +1042,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B0CMK1W2YX</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>98</v>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
       </c>
       <c r="D16" t="n">
         <v>98</v>
       </c>
       <c r="E16" t="n">
+        <v>98</v>
+      </c>
+      <c r="F16" t="n">
         <v>120</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>148</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>193</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B650 A ELITE AX V2            </t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+        </is>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1002,30 +1082,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B0CMK1W2YX</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>98</v>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
       </c>
       <c r="D17" t="n">
         <v>98</v>
       </c>
       <c r="E17" t="n">
+        <v>98</v>
+      </c>
+      <c r="F17" t="n">
         <v>120</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>147</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>192</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B650 A ELITE AX V2            </t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+        </is>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMK1W2YX.xlsx
+++ b/Sufficient data/forecast_summary_B0CMK1W2YX.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="E2" t="n">
         <v>81</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="E3" t="n">
         <v>87</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="E4" t="n">
         <v>95</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E5" t="n">
         <v>95</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="E6" t="n">
         <v>96</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E7" t="n">
         <v>94</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="E8" t="n">
         <v>99</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="E9" t="n">
         <v>102</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E10" t="n">
         <v>100</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E11" t="n">
         <v>103</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="E12" t="n">
         <v>103</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="E13" t="n">
         <v>103</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="E14" t="n">
         <v>102</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="E15" t="n">
         <v>97</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="E16" t="n">
         <v>98</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="E17" t="n">
         <v>98</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-11-19 to 2024-12-29</t>
+          <t>2023-11-19 to 2025-01-05</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>180</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4566 units</t>
+          <t>4622 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1727</t>
+          <t>2108</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>852</t>
+          <t>973</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>465</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>154</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-27</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>113</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-01-12</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMK1W2YX.xlsx
+++ b/Sufficient data/forecast_summary_B0CMK1W2YX.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F2" t="n">
         <v>95</v>
       </c>
       <c r="G2" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H2" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E3" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F3" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G3" t="n">
         <v>120</v>
       </c>
       <c r="H3" t="n">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F4" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G4" t="n">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H4" t="n">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F5" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G5" t="n">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H5" t="n">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="E6" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F6" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G6" t="n">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H6" t="n">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="E7" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F7" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G7" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="E8" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G8" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H8" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="E9" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F9" t="n">
         <v>125</v>
       </c>
       <c r="G9" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H9" t="n">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F10" t="n">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G10" t="n">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H10" t="n">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E11" t="n">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F11" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G11" t="n">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H11" t="n">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="E12" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F12" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G12" t="n">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H12" t="n">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="E13" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F13" t="n">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G13" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="H13" t="n">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="E14" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F14" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G14" t="n">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H14" t="n">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="E15" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F15" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G15" t="n">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H15" t="n">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="E16" t="n">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F16" t="n">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G16" t="n">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="H16" t="n">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="E17" t="n">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F17" t="n">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G17" t="n">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="H17" t="n">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-11-19 to 2025-01-05</t>
+          <t>2023-11-19 to 2025-01-12</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>178</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4622 units</t>
+          <t>4687 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2108</t>
+          <t>1697</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>973</t>
+          <t>841</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>406</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>121</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-04-06</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-05-04</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMK1W2YX.xlsx
+++ b/Sufficient data/forecast_summary_B0CMK1W2YX.xlsx
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="E15" t="n">
         <v>96</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="E16" t="n">
         <v>93</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="E17" t="n">
         <v>91</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1697</t>
+          <t>1768</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMK1W2YX.xlsx
+++ b/Sufficient data/forecast_summary_B0CMK1W2YX.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="E2" t="n">
         <v>82</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E3" t="n">
         <v>88</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E4" t="n">
         <v>94</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E5" t="n">
         <v>93</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="E6" t="n">
         <v>95</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E7" t="n">
         <v>92</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E8" t="n">
         <v>100</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="E9" t="n">
         <v>103</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="E10" t="n">
         <v>98</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="E11" t="n">
         <v>99</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="E12" t="n">
         <v>100</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E13" t="n">
         <v>100</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="E14" t="n">
         <v>100</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="E15" t="n">
         <v>96</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="E16" t="n">
         <v>93</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="E17" t="n">
         <v>91</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1768</t>
+          <t>2154</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>993</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>474</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>154</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-20</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>117</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMK1W2YX.xlsx
+++ b/Sufficient data/forecast_summary_B0CMK1W2YX.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E2" t="n">
         <v>82</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E3" t="n">
         <v>88</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E4" t="n">
         <v>94</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E5" t="n">
         <v>93</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E6" t="n">
         <v>95</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E7" t="n">
         <v>92</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E8" t="n">
         <v>100</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E9" t="n">
         <v>103</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E10" t="n">
         <v>98</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E11" t="n">
         <v>99</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E12" t="n">
         <v>100</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E13" t="n">
         <v>100</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="E14" t="n">
         <v>100</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="E15" t="n">
         <v>96</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="E16" t="n">
         <v>93</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="E17" t="n">
         <v>91</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-11-19 to 2025-01-12</t>
+          <t>2023-11-19 to 2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>182</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4687 units</t>
+          <t>4877 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2154</t>
+          <t>1981</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>993</t>
+          <t>971</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>464</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>134</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>107</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMK1W2YX.xlsx
+++ b/Sufficient data/forecast_summary_B0CMK1W2YX.xlsx
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>174</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4877 units</t>
+          <t>4745 units</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0CMK1W2YX.xlsx
+++ b/Sufficient data/forecast_summary_B0CMK1W2YX.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E2" t="n">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F2" t="n">
+        <v>84</v>
+      </c>
+      <c r="G2" t="n">
         <v>95</v>
       </c>
-      <c r="G2" t="n">
-        <v>106</v>
-      </c>
       <c r="H2" t="n">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="E3" t="n">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F3" t="n">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="G3" t="n">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="H3" t="n">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E4" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F4" t="n">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="G4" t="n">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="H4" t="n">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E5" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F5" t="n">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G5" t="n">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="H5" t="n">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E6" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F6" t="n">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G6" t="n">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="H6" t="n">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E7" t="n">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F7" t="n">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="G7" t="n">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="H7" t="n">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E8" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F8" t="n">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G8" t="n">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="H8" t="n">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E9" t="n">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F9" t="n">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="G9" t="n">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="H9" t="n">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E10" t="n">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F10" t="n">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G10" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="H10" t="n">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E11" t="n">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F11" t="n">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G11" t="n">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="H11" t="n">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E12" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F12" t="n">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="G12" t="n">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H12" t="n">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E13" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F13" t="n">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="G13" t="n">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H13" t="n">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E14" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F14" t="n">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G14" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="H14" t="n">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E15" t="n">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F15" t="n">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G15" t="n">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H15" t="n">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E16" t="n">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F16" t="n">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="G16" t="n">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="H16" t="n">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E17" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F17" t="n">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H17" t="n">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-11-19 to 2025-01-19</t>
+          <t>2023-11-19 to 2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4745 units</t>
+          <t>4829 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1981</t>
+          <t>1804</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>971</t>
+          <t>879</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>413</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>122</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
